--- a/biology/Médecine/Triangle_occipital/Triangle_occipital.xlsx
+++ b/biology/Médecine/Triangle_occipital/Triangle_occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle occipital est la partie supérieure de la région sus-claviculaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle occipital est délimité, à l'avant, par le muscle sterno-cléido-mastoïdien, à l'arrière par le muscle trapèze et en bas par le muscle omo-hyoïdien.
 Sa face profonde est constituée de haut en bas par les muscles splénius de la tête, élévateur de la scapula, scalène moyen et scalène postérieur.
@@ -544,7 +558,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf accessoire traverse obliquement le triangle occipital depuis le muscle sterno-cléido-mastoïdien.
 En bas, se trouvent les nerfs supra claviculaires, les vaisseaux dorsaux de la scapula et la partie supérieure du plexus brachial.
